--- a/data/Seed to silking/silking_data.xlsx
+++ b/data/Seed to silking/silking_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/data/Seed to silking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBD721B-D8DB-C34E-A120-1E2ED418C151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB46B067-9B03-AC4B-BAD3-9599300FC95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5140" yWindow="500" windowWidth="20120" windowHeight="16100" xr2:uid="{BC1DB223-9D75-1747-BDD7-0C681A3D0D56}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>mean</t>
   </si>
   <si>
-    <t>se</t>
-  </si>
-  <si>
     <t>dam</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>P2</t>
+  </si>
+  <si>
+    <t>SE</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,18 +434,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>65.73</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>64.19</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>64.95</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>65.19</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>63.99</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>67.680000000000007</v>

--- a/data/Seed to silking/silking_data.xlsx
+++ b/data/Seed to silking/silking_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/data/Seed to silking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB46B067-9B03-AC4B-BAD3-9599300FC95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5440C454-CD8E-424A-9A07-8408482E1A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5140" yWindow="500" windowWidth="20120" windowHeight="16100" xr2:uid="{BC1DB223-9D75-1747-BDD7-0C681A3D0D56}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>cross</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>SE</t>
+  </si>
+  <si>
+    <t>environ</t>
   </si>
 </sst>
 </file>
@@ -418,15 +421,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C08CC9B-1A8C-CD41-AE30-353994DE9A5E}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,13 +440,16 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -459,8 +465,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -474,10 +483,13 @@
         <v>1</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -491,10 +503,13 @@
         <v>1</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -505,13 +520,16 @@
         <v>3.12</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -522,13 +540,16 @@
         <v>3.04</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>6</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -539,9 +560,12 @@
         <v>2.81</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6</v>
       </c>
     </row>
